--- a/FEHSimulation/Spreadsheets/FEHSpecials.xlsx
+++ b/FEHSimulation/Spreadsheets/FEHSpecials.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="531">
   <si>
     <t>Name</t>
   </si>
@@ -1623,6 +1623,12 @@
   </si>
   <si>
     <t>Boosts Special damage by 40% of unit's Res. If foe's Range = 1 and unit or foe's Special is ready or triggered before or during this combat, reduces damage from foe's next attack by 40% (once per combat; excluding area-of-effect Specials).</t>
+  </si>
+  <si>
+    <t>Magic Light</t>
+  </si>
+  <si>
+    <t>When Special triggers, treats foe's Def/Res as if reduced by 50% and neutralizes foe's "reduces damage by X%" effects from foe's non-Special skills.</t>
   </si>
 </sst>
 </file>
@@ -1943,10 +1949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q161"/>
+  <dimension ref="A1:Q162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2720,39 +2726,45 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>529</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>530</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="s">
         <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F26">
-        <v>30</v>
+        <v>50</v>
+      </c>
+      <c r="G26" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
       </c>
       <c r="M26" t="s">
         <v>21</v>
       </c>
       <c r="N26" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s">
         <v>90</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
         <v>19</v>
@@ -2772,13 +2784,13 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
         <v>19</v>
@@ -2787,7 +2799,7 @@
         <v>91</v>
       </c>
       <c r="F28">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M28" t="s">
         <v>21</v>
@@ -2798,42 +2810,36 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
         <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F29">
-        <v>30</v>
-      </c>
-      <c r="G29" t="s">
         <v>50</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
       <c r="M29" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="N29" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -2842,13 +2848,13 @@
         <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F30">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2862,36 +2868,42 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="s">
         <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F31">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="G31" t="s">
+        <v>101</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="N31" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -2900,59 +2912,59 @@
         <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F32">
         <v>20</v>
       </c>
-      <c r="G32" t="s">
-        <v>50</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
       <c r="M32" t="s">
         <v>21</v>
       </c>
       <c r="N32" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
         <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F33">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
         <v>50</v>
       </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
       <c r="M33" t="s">
         <v>21</v>
       </c>
       <c r="N33" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B34" t="s">
         <v>110</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
         <v>19</v>
@@ -2972,13 +2984,13 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
         <v>19</v>
@@ -2987,7 +2999,7 @@
         <v>111</v>
       </c>
       <c r="F35">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="M35" t="s">
         <v>21</v>
@@ -2998,13 +3010,13 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
         <v>19</v>
@@ -3013,62 +3025,56 @@
         <v>111</v>
       </c>
       <c r="F36">
-        <v>100</v>
-      </c>
-      <c r="G36" t="s">
-        <v>50</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="M36" t="s">
         <v>21</v>
       </c>
       <c r="N36" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
         <v>19</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F37">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G37" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N37" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="s">
         <v>19</v>
@@ -3077,10 +3083,10 @@
         <v>119</v>
       </c>
       <c r="F38">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3094,10 +3100,10 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -3106,30 +3112,30 @@
         <v>19</v>
       </c>
       <c r="E39" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="N39" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -3138,27 +3144,33 @@
         <v>19</v>
       </c>
       <c r="E40" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F40">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="G40" t="s">
+        <v>127</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
       </c>
       <c r="M40" t="s">
         <v>21</v>
       </c>
       <c r="N40" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B41" t="s">
         <v>129</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
         <v>19</v>
@@ -3167,7 +3179,7 @@
         <v>130</v>
       </c>
       <c r="F41">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M41" t="s">
         <v>21</v>
@@ -3178,13 +3190,13 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
         <v>19</v>
@@ -3204,10 +3216,10 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -3216,10 +3228,10 @@
         <v>19</v>
       </c>
       <c r="E43" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F43">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M43" t="s">
         <v>21</v>
@@ -3230,13 +3242,13 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B44" t="s">
         <v>135</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
         <v>19</v>
@@ -3256,13 +3268,13 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="s">
         <v>19</v>
@@ -3271,7 +3283,7 @@
         <v>136</v>
       </c>
       <c r="F45">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M45" t="s">
         <v>21</v>
@@ -3282,13 +3294,13 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B46" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="s">
         <v>19</v>
@@ -3297,12 +3309,6 @@
         <v>136</v>
       </c>
       <c r="F46">
-        <v>5</v>
-      </c>
-      <c r="G46" t="s">
-        <v>77</v>
-      </c>
-      <c r="H46">
         <v>50</v>
       </c>
       <c r="M46" t="s">
@@ -3314,28 +3320,28 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="E47" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G47" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M47" t="s">
         <v>21</v>
@@ -3346,7 +3352,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B48" t="s">
         <v>143</v>
@@ -3367,7 +3373,7 @@
         <v>146</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48" t="s">
         <v>21</v>
@@ -3378,7 +3384,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B49" t="s">
         <v>143</v>
@@ -3393,13 +3399,13 @@
         <v>145</v>
       </c>
       <c r="F49">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G49" t="s">
         <v>146</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M49" t="s">
         <v>21</v>
@@ -3410,7 +3416,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B50" t="s">
         <v>143</v>
@@ -3425,7 +3431,7 @@
         <v>145</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G50" t="s">
         <v>146</v>
@@ -3442,10 +3448,10 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -3463,7 +3469,7 @@
         <v>146</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M51" t="s">
         <v>21</v>
@@ -3474,7 +3480,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B52" t="s">
         <v>151</v>
@@ -3489,13 +3495,13 @@
         <v>145</v>
       </c>
       <c r="F52">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G52" t="s">
         <v>146</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M52" t="s">
         <v>21</v>
@@ -3506,7 +3512,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B53" t="s">
         <v>151</v>
@@ -3521,7 +3527,7 @@
         <v>145</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G53" t="s">
         <v>146</v>
@@ -3538,7 +3544,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B54" t="s">
         <v>151</v>
@@ -3559,7 +3565,7 @@
         <v>146</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M54" t="s">
         <v>21</v>
@@ -3570,10 +3576,10 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B55" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -3585,13 +3591,13 @@
         <v>145</v>
       </c>
       <c r="F55">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G55" t="s">
         <v>146</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M55" t="s">
         <v>21</v>
@@ -3602,7 +3608,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B56" t="s">
         <v>143</v>
@@ -3617,7 +3623,7 @@
         <v>145</v>
       </c>
       <c r="F56">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
         <v>146</v>
@@ -3634,7 +3640,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B57" t="s">
         <v>143</v>
@@ -3655,7 +3661,7 @@
         <v>146</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M57" t="s">
         <v>21</v>
@@ -3666,7 +3672,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B58" t="s">
         <v>143</v>
@@ -3681,13 +3687,13 @@
         <v>145</v>
       </c>
       <c r="F58">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G58" t="s">
         <v>146</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M58" t="s">
         <v>21</v>
@@ -3698,39 +3704,45 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B59" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="E59" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="F59">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="G59" t="s">
+        <v>146</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
       </c>
       <c r="M59" t="s">
         <v>21</v>
       </c>
       <c r="N59" t="s">
-        <v>163</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B60" t="s">
         <v>160</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="s">
         <v>161</v>
@@ -3750,13 +3762,13 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B61" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="s">
         <v>161</v>
@@ -3765,7 +3777,7 @@
         <v>162</v>
       </c>
       <c r="F61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M61" t="s">
         <v>21</v>
@@ -3776,10 +3788,10 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B62" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -3788,10 +3800,10 @@
         <v>161</v>
       </c>
       <c r="E62" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M62" t="s">
         <v>21</v>
@@ -3802,13 +3814,13 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B63" t="s">
         <v>168</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="s">
         <v>161</v>
@@ -3828,13 +3840,13 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B64" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="s">
         <v>161</v>
@@ -3843,7 +3855,7 @@
         <v>169</v>
       </c>
       <c r="F64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M64" t="s">
         <v>21</v>
@@ -3854,10 +3866,10 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B65" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -3866,59 +3878,59 @@
         <v>161</v>
       </c>
       <c r="E65" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M65" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N65" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B66" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="E66" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="M66" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="N66" t="s">
-        <v>179</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B67" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C67">
         <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E67" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -3927,50 +3939,50 @@
         <v>21</v>
       </c>
       <c r="N67" t="s">
-        <v>21</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B68" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E68" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F68">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M68" t="s">
         <v>21</v>
       </c>
       <c r="N68" t="s">
-        <v>188</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B69" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69" t="s">
         <v>186</v>
       </c>
       <c r="E69" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F69">
         <v>10</v>
@@ -3984,22 +3996,22 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B70" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" t="s">
         <v>186</v>
       </c>
       <c r="E70" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F70">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M70" t="s">
         <v>21</v>
@@ -4010,10 +4022,10 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B71" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4022,7 +4034,7 @@
         <v>186</v>
       </c>
       <c r="E71" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F71">
         <v>4</v>
@@ -4036,10 +4048,10 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B72" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4048,7 +4060,7 @@
         <v>186</v>
       </c>
       <c r="E72" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F72">
         <v>4</v>
@@ -4062,10 +4074,10 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B73" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4074,7 +4086,7 @@
         <v>186</v>
       </c>
       <c r="E73" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F73">
         <v>4</v>
@@ -4088,10 +4100,10 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B74" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4100,17 +4112,11 @@
         <v>186</v>
       </c>
       <c r="E74" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="F74">
         <v>4</v>
       </c>
-      <c r="G74" t="s">
-        <v>197</v>
-      </c>
-      <c r="H74">
-        <v>4</v>
-      </c>
       <c r="M74" t="s">
         <v>21</v>
       </c>
@@ -4120,10 +4126,10 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B75" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4135,13 +4141,13 @@
         <v>194</v>
       </c>
       <c r="F75">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G75" t="s">
         <v>197</v>
       </c>
       <c r="H75">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M75" t="s">
         <v>21</v>
@@ -4152,10 +4158,10 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B76" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4167,13 +4173,13 @@
         <v>194</v>
       </c>
       <c r="F76">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G76" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H76">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M76" t="s">
         <v>21</v>
@@ -4184,10 +4190,10 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B77" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4199,13 +4205,13 @@
         <v>194</v>
       </c>
       <c r="F77">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G77" t="s">
         <v>200</v>
       </c>
       <c r="H77">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M77" t="s">
         <v>21</v>
@@ -4216,10 +4222,10 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B78" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4231,13 +4237,13 @@
         <v>194</v>
       </c>
       <c r="F78">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G78" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H78">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M78" t="s">
         <v>21</v>
@@ -4248,10 +4254,10 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B79" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4263,13 +4269,13 @@
         <v>194</v>
       </c>
       <c r="F79">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G79" t="s">
         <v>203</v>
       </c>
       <c r="H79">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M79" t="s">
         <v>21</v>
@@ -4280,10 +4286,10 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B80" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4292,16 +4298,16 @@
         <v>186</v>
       </c>
       <c r="E80" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F80">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G80" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M80" t="s">
         <v>21</v>
@@ -4312,10 +4318,10 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B81" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4327,13 +4333,13 @@
         <v>197</v>
       </c>
       <c r="F81">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G81" t="s">
         <v>200</v>
       </c>
       <c r="H81">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M81" t="s">
         <v>21</v>
@@ -4344,10 +4350,10 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B82" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4359,13 +4365,13 @@
         <v>197</v>
       </c>
       <c r="F82">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G82" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H82">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M82" t="s">
         <v>21</v>
@@ -4376,10 +4382,10 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B83" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4391,13 +4397,13 @@
         <v>197</v>
       </c>
       <c r="F83">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G83" t="s">
         <v>203</v>
       </c>
       <c r="H83">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M83" t="s">
         <v>21</v>
@@ -4408,10 +4414,10 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B84" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -4420,16 +4426,16 @@
         <v>186</v>
       </c>
       <c r="E84" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F84">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G84" t="s">
         <v>203</v>
       </c>
       <c r="H84">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M84" t="s">
         <v>21</v>
@@ -4440,10 +4446,10 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B85" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4455,13 +4461,13 @@
         <v>200</v>
       </c>
       <c r="F85">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G85" t="s">
         <v>203</v>
       </c>
       <c r="H85">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M85" t="s">
         <v>21</v>
@@ -4472,28 +4478,28 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B86" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="E86" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="F86">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="G86" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M86" t="s">
         <v>21</v>
@@ -4504,13 +4510,13 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B87" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="s">
         <v>19</v>
@@ -4519,10 +4525,10 @@
         <v>230</v>
       </c>
       <c r="F87">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G87" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -4536,10 +4542,10 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B88" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -4554,7 +4560,7 @@
         <v>25</v>
       </c>
       <c r="G88" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -4568,13 +4574,13 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B89" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="s">
         <v>19</v>
@@ -4583,10 +4589,10 @@
         <v>230</v>
       </c>
       <c r="F89">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G89" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -4600,10 +4606,10 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B90" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -4612,33 +4618,30 @@
         <v>19</v>
       </c>
       <c r="E90" t="s">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="F90">
-        <v>80</v>
+        <v>45</v>
+      </c>
+      <c r="G90" t="s">
+        <v>240</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
       </c>
       <c r="M90" t="s">
         <v>21</v>
       </c>
       <c r="N90" t="s">
-        <v>22</v>
-      </c>
-      <c r="O90" t="s">
-        <v>243</v>
-      </c>
-      <c r="P90" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>245</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B91" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -4652,12 +4655,6 @@
       <c r="F91">
         <v>80</v>
       </c>
-      <c r="G91" t="s">
-        <v>248</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
       <c r="M91" t="s">
         <v>21</v>
       </c>
@@ -4665,27 +4662,39 @@
         <v>22</v>
       </c>
       <c r="O91" t="s">
-        <v>249</v>
+        <v>243</v>
+      </c>
+      <c r="P91" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B92" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="s">
         <v>19</v>
       </c>
       <c r="E92" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="F92">
-        <v>40</v>
+        <v>80</v>
+      </c>
+      <c r="G92" t="s">
+        <v>248</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
       </c>
       <c r="M92" t="s">
         <v>21</v>
@@ -4694,39 +4703,27 @@
         <v>22</v>
       </c>
       <c r="O92" t="s">
-        <v>252</v>
-      </c>
-      <c r="P92" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B93" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C93">
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="E93" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="F93">
-        <v>3</v>
-      </c>
-      <c r="G93" t="s">
-        <v>257</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M93" t="s">
         <v>21</v>
@@ -4735,18 +4732,21 @@
         <v>22</v>
       </c>
       <c r="O93" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="P93" t="s">
-        <v>259</v>
+        <v>253</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B94" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -4758,10 +4758,10 @@
         <v>169</v>
       </c>
       <c r="F94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G94" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -4775,31 +4775,34 @@
       <c r="O94" t="s">
         <v>258</v>
       </c>
+      <c r="P94" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B95" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>161</v>
+      </c>
+      <c r="E95" t="s">
+        <v>169</v>
+      </c>
+      <c r="F95">
         <v>4</v>
       </c>
-      <c r="D95" t="s">
-        <v>19</v>
-      </c>
-      <c r="E95" t="s">
-        <v>136</v>
-      </c>
-      <c r="F95">
-        <v>50</v>
-      </c>
       <c r="G95" t="s">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="H95">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M95" t="s">
         <v>21</v>
@@ -4808,21 +4811,15 @@
         <v>22</v>
       </c>
       <c r="O95" t="s">
-        <v>265</v>
-      </c>
-      <c r="P95" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B96" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -4842,12 +4839,6 @@
       <c r="H96">
         <v>50</v>
       </c>
-      <c r="I96" t="s">
-        <v>270</v>
-      </c>
-      <c r="J96">
-        <v>2</v>
-      </c>
       <c r="M96" t="s">
         <v>21</v>
       </c>
@@ -4857,32 +4848,44 @@
       <c r="O96" t="s">
         <v>265</v>
       </c>
+      <c r="P96" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B97" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" t="s">
+        <v>136</v>
+      </c>
+      <c r="F97">
+        <v>50</v>
+      </c>
+      <c r="G97" t="s">
+        <v>77</v>
+      </c>
+      <c r="H97">
+        <v>50</v>
+      </c>
+      <c r="I97" t="s">
+        <v>270</v>
+      </c>
+      <c r="J97">
         <v>2</v>
       </c>
-      <c r="D97" t="s">
-        <v>19</v>
-      </c>
-      <c r="E97" t="s">
-        <v>119</v>
-      </c>
-      <c r="F97">
-        <v>30</v>
-      </c>
-      <c r="G97" t="s">
-        <v>271</v>
-      </c>
-      <c r="H97">
-        <v>4</v>
-      </c>
       <c r="M97" t="s">
         <v>21</v>
       </c>
@@ -4890,18 +4893,15 @@
         <v>22</v>
       </c>
       <c r="O97" t="s">
-        <v>273</v>
-      </c>
-      <c r="P97" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B98" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -4913,19 +4913,13 @@
         <v>119</v>
       </c>
       <c r="F98">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
         <v>271</v>
       </c>
       <c r="H98">
-        <v>6</v>
-      </c>
-      <c r="I98" t="s">
-        <v>275</v>
-      </c>
-      <c r="J98">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M98" t="s">
         <v>21</v>
@@ -4937,15 +4931,15 @@
         <v>273</v>
       </c>
       <c r="P98" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B99" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -4957,13 +4951,19 @@
         <v>119</v>
       </c>
       <c r="F99">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="H99">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="I99" t="s">
+        <v>275</v>
+      </c>
+      <c r="J99">
+        <v>6</v>
       </c>
       <c r="M99" t="s">
         <v>21</v>
@@ -4972,18 +4972,18 @@
         <v>22</v>
       </c>
       <c r="O99" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="P99" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B100" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -5003,12 +5003,6 @@
       <c r="H100">
         <v>20</v>
       </c>
-      <c r="I100" t="s">
-        <v>50</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
       <c r="M100" t="s">
         <v>21</v>
       </c>
@@ -5018,13 +5012,16 @@
       <c r="O100" t="s">
         <v>280</v>
       </c>
+      <c r="P100" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B101" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -5036,13 +5033,19 @@
         <v>119</v>
       </c>
       <c r="F101">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G101" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="H101">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="I101" t="s">
+        <v>50</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
       </c>
       <c r="M101" t="s">
         <v>21</v>
@@ -5051,21 +5054,15 @@
         <v>22</v>
       </c>
       <c r="O101" t="s">
-        <v>286</v>
-      </c>
-      <c r="P101" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B102" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -5077,19 +5074,13 @@
         <v>119</v>
       </c>
       <c r="F102">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
         <v>136</v>
       </c>
       <c r="H102">
-        <v>35</v>
-      </c>
-      <c r="I102" t="s">
-        <v>291</v>
-      </c>
-      <c r="J102">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M102" t="s">
         <v>21</v>
@@ -5100,30 +5091,42 @@
       <c r="O102" t="s">
         <v>286</v>
       </c>
+      <c r="P102" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B103" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="E103" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>294</v>
+        <v>136</v>
       </c>
       <c r="H103">
+        <v>35</v>
+      </c>
+      <c r="I103" t="s">
+        <v>291</v>
+      </c>
+      <c r="J103">
         <v>0</v>
       </c>
       <c r="M103" t="s">
@@ -5133,18 +5136,15 @@
         <v>22</v>
       </c>
       <c r="O103" t="s">
-        <v>295</v>
-      </c>
-      <c r="P103" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B104" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C104">
         <v>3</v>
@@ -5164,12 +5164,6 @@
       <c r="H104">
         <v>0</v>
       </c>
-      <c r="I104" t="s">
-        <v>270</v>
-      </c>
-      <c r="J104">
-        <v>1</v>
-      </c>
       <c r="M104" t="s">
         <v>21</v>
       </c>
@@ -5179,32 +5173,41 @@
       <c r="O104" t="s">
         <v>295</v>
       </c>
+      <c r="P104" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B105" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D105" t="s">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="E105" t="s">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c r="F105">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>50</v>
+        <v>294</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
+      <c r="I105" t="s">
+        <v>270</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
       <c r="M105" t="s">
         <v>21</v>
       </c>
@@ -5212,36 +5215,33 @@
         <v>22</v>
       </c>
       <c r="O105" t="s">
-        <v>301</v>
-      </c>
-      <c r="P105" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B106" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D106" t="s">
         <v>19</v>
       </c>
       <c r="E106" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F106">
         <v>50</v>
       </c>
       <c r="G106" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="H106">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M106" t="s">
         <v>21</v>
@@ -5250,33 +5250,36 @@
         <v>22</v>
       </c>
       <c r="O106" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P106" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B107" t="s">
-        <v>251</v>
+        <v>304</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D107" t="s">
         <v>19</v>
       </c>
       <c r="E107" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="F107">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="G107" t="s">
+        <v>136</v>
+      </c>
+      <c r="H107">
+        <v>25</v>
       </c>
       <c r="M107" t="s">
         <v>21</v>
@@ -5285,15 +5288,21 @@
         <v>22</v>
       </c>
       <c r="O107" t="s">
-        <v>309</v>
+        <v>305</v>
+      </c>
+      <c r="P107" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B108" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -5305,13 +5314,7 @@
         <v>119</v>
       </c>
       <c r="F108">
-        <v>30</v>
-      </c>
-      <c r="G108" t="s">
-        <v>271</v>
-      </c>
-      <c r="H108">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="M108" t="s">
         <v>21</v>
@@ -5320,15 +5323,15 @@
         <v>22</v>
       </c>
       <c r="O108" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B109" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -5343,10 +5346,10 @@
         <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="H109">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M109" t="s">
         <v>21</v>
@@ -5355,33 +5358,33 @@
         <v>22</v>
       </c>
       <c r="O109" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B110" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="C110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D110" t="s">
         <v>19</v>
       </c>
       <c r="E110" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="F110">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G110" t="s">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="H110">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="M110" t="s">
         <v>21</v>
@@ -5390,33 +5393,33 @@
         <v>22</v>
       </c>
       <c r="O110" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B111" t="s">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D111" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="E111" t="s">
-        <v>320</v>
+        <v>136</v>
       </c>
       <c r="F111">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="G111" t="s">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="H111">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M111" t="s">
         <v>21</v>
@@ -5425,18 +5428,15 @@
         <v>22</v>
       </c>
       <c r="O111" t="s">
-        <v>322</v>
-      </c>
-      <c r="P111" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B112" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C112">
         <v>3</v>
@@ -5448,19 +5448,13 @@
         <v>320</v>
       </c>
       <c r="F112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G112" t="s">
         <v>321</v>
       </c>
       <c r="H112">
-        <v>40</v>
-      </c>
-      <c r="I112" t="s">
-        <v>326</v>
-      </c>
-      <c r="J112">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="M112" t="s">
         <v>21</v>
@@ -5469,39 +5463,42 @@
         <v>22</v>
       </c>
       <c r="O112" t="s">
-        <v>327</v>
+        <v>322</v>
+      </c>
+      <c r="P112" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B113" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C113">
         <v>3</v>
       </c>
       <c r="D113" t="s">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="E113" t="s">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="F113">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G113" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I113" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M113" t="s">
         <v>21</v>
@@ -5510,18 +5507,15 @@
         <v>22</v>
       </c>
       <c r="O113" t="s">
-        <v>332</v>
-      </c>
-      <c r="P113" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B114" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C114">
         <v>3</v>
@@ -5530,7 +5524,7 @@
         <v>19</v>
       </c>
       <c r="E114" t="s">
-        <v>336</v>
+        <v>270</v>
       </c>
       <c r="F114">
         <v>3</v>
@@ -5542,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -5556,32 +5550,41 @@
       <c r="O114" t="s">
         <v>332</v>
       </c>
+      <c r="P114" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B115" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D115" t="s">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="E115" t="s">
-        <v>145</v>
+        <v>336</v>
       </c>
       <c r="F115">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G115" t="s">
-        <v>146</v>
+        <v>330</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
+      <c r="I115" t="s">
+        <v>337</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
       <c r="M115" t="s">
         <v>21</v>
       </c>
@@ -5589,18 +5592,15 @@
         <v>22</v>
       </c>
       <c r="O115" t="s">
-        <v>340</v>
-      </c>
-      <c r="P115" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B116" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C116">
         <v>2</v>
@@ -5618,12 +5618,6 @@
         <v>146</v>
       </c>
       <c r="H116">
-        <v>1</v>
-      </c>
-      <c r="I116" t="s">
-        <v>344</v>
-      </c>
-      <c r="J116">
         <v>0</v>
       </c>
       <c r="M116" t="s">
@@ -5635,30 +5629,39 @@
       <c r="O116" t="s">
         <v>340</v>
       </c>
+      <c r="P116" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B117" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C117">
         <v>2</v>
       </c>
       <c r="D117" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="E117" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="F117">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G117" t="s">
-        <v>347</v>
+        <v>146</v>
       </c>
       <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117" t="s">
+        <v>344</v>
+      </c>
+      <c r="J117">
         <v>0</v>
       </c>
       <c r="M117" t="s">
@@ -5668,15 +5671,15 @@
         <v>22</v>
       </c>
       <c r="O117" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B118" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -5688,10 +5691,10 @@
         <v>91</v>
       </c>
       <c r="F118">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G118" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -5708,10 +5711,10 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B119" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C119">
         <v>2</v>
@@ -5720,13 +5723,13 @@
         <v>19</v>
       </c>
       <c r="E119" t="s">
-        <v>354</v>
+        <v>91</v>
       </c>
       <c r="F119">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G119" t="s">
-        <v>50</v>
+        <v>351</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -5738,18 +5741,15 @@
         <v>22</v>
       </c>
       <c r="O119" t="s">
-        <v>355</v>
-      </c>
-      <c r="P119" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B120" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C120">
         <v>2</v>
@@ -5761,7 +5761,7 @@
         <v>354</v>
       </c>
       <c r="F120">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G120" t="s">
         <v>50</v>
@@ -5769,12 +5769,6 @@
       <c r="H120">
         <v>0</v>
       </c>
-      <c r="I120" t="s">
-        <v>359</v>
-      </c>
-      <c r="J120">
-        <v>3</v>
-      </c>
       <c r="M120" t="s">
         <v>21</v>
       </c>
@@ -5784,26 +5778,41 @@
       <c r="O120" t="s">
         <v>355</v>
       </c>
+      <c r="P120" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B121" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s">
+        <v>19</v>
+      </c>
+      <c r="E121" t="s">
+        <v>354</v>
+      </c>
+      <c r="F121">
+        <v>30</v>
+      </c>
+      <c r="G121" t="s">
+        <v>50</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121" t="s">
+        <v>359</v>
+      </c>
+      <c r="J121">
         <v>3</v>
       </c>
-      <c r="D121" t="s">
-        <v>176</v>
-      </c>
-      <c r="E121" t="s">
-        <v>362</v>
-      </c>
-      <c r="F121">
-        <v>0</v>
-      </c>
       <c r="M121" t="s">
         <v>21</v>
       </c>
@@ -5811,40 +5820,28 @@
         <v>22</v>
       </c>
       <c r="O121" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B122" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C122">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D122" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E122" t="s">
-        <v>183</v>
+        <v>362</v>
       </c>
       <c r="F122">
         <v>0</v>
       </c>
-      <c r="G122" t="s">
-        <v>366</v>
-      </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="I122" t="s">
-        <v>270</v>
-      </c>
-      <c r="J122">
-        <v>5</v>
-      </c>
       <c r="M122" t="s">
         <v>21</v>
       </c>
@@ -5852,15 +5849,15 @@
         <v>22</v>
       </c>
       <c r="O122" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B123" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C123">
         <v>5</v>
@@ -5875,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -5898,28 +5895,34 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B124" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C124">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D124" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="E124" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="F124">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G124" t="s">
+        <v>370</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124" t="s">
         <v>270</v>
       </c>
-      <c r="H124">
-        <v>3</v>
+      <c r="J124">
+        <v>5</v>
       </c>
       <c r="M124" t="s">
         <v>21</v>
@@ -5928,15 +5931,15 @@
         <v>22</v>
       </c>
       <c r="O124" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B125" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C125">
         <v>3</v>
@@ -5945,13 +5948,13 @@
         <v>19</v>
       </c>
       <c r="E125" t="s">
-        <v>375</v>
+        <v>77</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G125" t="s">
-        <v>336</v>
+        <v>270</v>
       </c>
       <c r="H125">
         <v>3</v>
@@ -5968,28 +5971,28 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B126" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D126" t="s">
         <v>19</v>
       </c>
       <c r="E126" t="s">
-        <v>119</v>
+        <v>375</v>
       </c>
       <c r="F126">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G126" t="s">
-        <v>378</v>
+        <v>336</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M126" t="s">
         <v>21</v>
@@ -5998,18 +6001,15 @@
         <v>22</v>
       </c>
       <c r="O126" t="s">
-        <v>379</v>
-      </c>
-      <c r="P126" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B127" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C127">
         <v>2</v>
@@ -6018,13 +6018,13 @@
         <v>19</v>
       </c>
       <c r="E127" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="F127">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G127" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -6036,15 +6036,18 @@
         <v>22</v>
       </c>
       <c r="O127" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="P127" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>385</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
+      </c>
+      <c r="B128" t="s">
+        <v>382</v>
       </c>
       <c r="C128">
         <v>2</v>
@@ -6059,21 +6062,9 @@
         <v>40</v>
       </c>
       <c r="G128" t="s">
-        <v>50</v>
+        <v>383</v>
       </c>
       <c r="H128">
-        <v>0</v>
-      </c>
-      <c r="I128" t="s">
-        <v>248</v>
-      </c>
-      <c r="J128">
-        <v>0</v>
-      </c>
-      <c r="K128" t="s">
-        <v>387</v>
-      </c>
-      <c r="L128">
         <v>0</v>
       </c>
       <c r="M128" t="s">
@@ -6086,12 +6077,12 @@
         <v>384</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>388</v>
-      </c>
-      <c r="B129" t="s">
-        <v>389</v>
+        <v>385</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="C129">
         <v>2</v>
@@ -6100,10 +6091,10 @@
         <v>19</v>
       </c>
       <c r="E129" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="F129">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G129" t="s">
         <v>50</v>
@@ -6112,11 +6103,17 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>291</v>
+        <v>248</v>
       </c>
       <c r="J129">
         <v>0</v>
       </c>
+      <c r="K129" t="s">
+        <v>387</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
       <c r="M129" t="s">
         <v>21</v>
       </c>
@@ -6124,26 +6121,38 @@
         <v>22</v>
       </c>
       <c r="O129" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B130" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
       <c r="D130" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="E130" t="s">
-        <v>393</v>
+        <v>91</v>
       </c>
       <c r="F130">
+        <v>25</v>
+      </c>
+      <c r="G130" t="s">
+        <v>50</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130" t="s">
+        <v>291</v>
+      </c>
+      <c r="J130">
         <v>0</v>
       </c>
       <c r="M130" t="s">
@@ -6153,38 +6162,26 @@
         <v>22</v>
       </c>
       <c r="O130" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B131" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C131">
         <v>2</v>
       </c>
       <c r="D131" t="s">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="E131" t="s">
-        <v>91</v>
+        <v>393</v>
       </c>
       <c r="F131">
-        <v>25</v>
-      </c>
-      <c r="G131" t="s">
-        <v>359</v>
-      </c>
-      <c r="H131">
-        <v>3</v>
-      </c>
-      <c r="I131" t="s">
-        <v>397</v>
-      </c>
-      <c r="J131">
         <v>0</v>
       </c>
       <c r="M131" t="s">
@@ -6194,15 +6191,15 @@
         <v>22</v>
       </c>
       <c r="O131" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B132" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C132">
         <v>2</v>
@@ -6211,10 +6208,10 @@
         <v>19</v>
       </c>
       <c r="E132" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="F132">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G132" t="s">
         <v>359</v>
@@ -6223,7 +6220,7 @@
         <v>3</v>
       </c>
       <c r="I132" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -6235,18 +6232,18 @@
         <v>22</v>
       </c>
       <c r="O132" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B133" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D133" t="s">
         <v>19</v>
@@ -6255,12 +6252,18 @@
         <v>119</v>
       </c>
       <c r="F133">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G133" t="s">
-        <v>405</v>
+        <v>359</v>
       </c>
       <c r="H133">
+        <v>3</v>
+      </c>
+      <c r="I133" t="s">
+        <v>401</v>
+      </c>
+      <c r="J133">
         <v>0</v>
       </c>
       <c r="M133" t="s">
@@ -6270,40 +6273,34 @@
         <v>22</v>
       </c>
       <c r="O133" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B134" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C134">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D134" t="s">
         <v>19</v>
       </c>
       <c r="E134" t="s">
-        <v>409</v>
+        <v>119</v>
       </c>
       <c r="F134">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G134" t="s">
-        <v>291</v>
+        <v>405</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
-      <c r="I134" t="s">
-        <v>410</v>
-      </c>
-      <c r="J134">
-        <v>0</v>
-      </c>
       <c r="M134" t="s">
         <v>21</v>
       </c>
@@ -6311,30 +6308,27 @@
         <v>22</v>
       </c>
       <c r="O134" t="s">
-        <v>411</v>
-      </c>
-      <c r="P134" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B135" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C135">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D135" t="s">
         <v>19</v>
       </c>
       <c r="E135" t="s">
-        <v>119</v>
+        <v>409</v>
       </c>
       <c r="F135">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G135" t="s">
         <v>291</v>
@@ -6343,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -6355,39 +6349,42 @@
         <v>22</v>
       </c>
       <c r="O135" t="s">
-        <v>416</v>
+        <v>411</v>
+      </c>
+      <c r="P135" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B136" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D136" t="s">
         <v>19</v>
       </c>
       <c r="E136" t="s">
-        <v>419</v>
+        <v>119</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G136" t="s">
-        <v>50</v>
+        <v>291</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="J136">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M136" t="s">
         <v>21</v>
@@ -6396,15 +6393,15 @@
         <v>22</v>
       </c>
       <c r="O136" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B137" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C137">
         <v>2</v>
@@ -6413,22 +6410,22 @@
         <v>19</v>
       </c>
       <c r="E137" t="s">
-        <v>35</v>
+        <v>419</v>
       </c>
       <c r="F137">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>291</v>
+        <v>50</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>423</v>
+        <v>354</v>
       </c>
       <c r="J137">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M137" t="s">
         <v>21</v>
@@ -6437,15 +6434,15 @@
         <v>22</v>
       </c>
       <c r="O137" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B138" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C138">
         <v>2</v>
@@ -6454,29 +6451,23 @@
         <v>19</v>
       </c>
       <c r="E138" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="F138">
         <v>40</v>
       </c>
       <c r="G138" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="H138">
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>291</v>
+        <v>423</v>
       </c>
       <c r="J138">
         <v>0</v>
       </c>
-      <c r="K138" t="s">
-        <v>427</v>
-      </c>
-      <c r="L138">
-        <v>100</v>
-      </c>
       <c r="M138" t="s">
         <v>21</v>
       </c>
@@ -6484,33 +6475,45 @@
         <v>22</v>
       </c>
       <c r="O138" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B139" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C139">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D139" t="s">
         <v>19</v>
       </c>
       <c r="E139" t="s">
-        <v>431</v>
+        <v>119</v>
       </c>
       <c r="F139">
         <v>40</v>
       </c>
       <c r="G139" t="s">
-        <v>432</v>
+        <v>248</v>
       </c>
       <c r="H139">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="I139" t="s">
+        <v>291</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139" t="s">
+        <v>427</v>
+      </c>
+      <c r="L139">
+        <v>100</v>
       </c>
       <c r="M139" t="s">
         <v>21</v>
@@ -6519,45 +6522,33 @@
         <v>22</v>
       </c>
       <c r="O139" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B140" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D140" t="s">
         <v>19</v>
       </c>
       <c r="E140" t="s">
-        <v>119</v>
+        <v>431</v>
       </c>
       <c r="F140">
         <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>50</v>
+        <v>432</v>
       </c>
       <c r="H140">
-        <v>0</v>
-      </c>
-      <c r="I140" t="s">
-        <v>314</v>
-      </c>
-      <c r="J140">
-        <v>20</v>
-      </c>
-      <c r="K140" t="s">
-        <v>436</v>
-      </c>
-      <c r="L140">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M140" t="s">
         <v>21</v>
@@ -6566,15 +6557,15 @@
         <v>22</v>
       </c>
       <c r="O140" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B141" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C141">
         <v>2</v>
@@ -6583,17 +6574,29 @@
         <v>19</v>
       </c>
       <c r="E141" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="F141">
         <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>440</v>
+        <v>50</v>
       </c>
       <c r="H141">
         <v>0</v>
       </c>
+      <c r="I141" t="s">
+        <v>314</v>
+      </c>
+      <c r="J141">
+        <v>20</v>
+      </c>
+      <c r="K141" t="s">
+        <v>436</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
       <c r="M141" t="s">
         <v>21</v>
       </c>
@@ -6601,15 +6604,15 @@
         <v>22</v>
       </c>
       <c r="O141" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B142" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C142">
         <v>2</v>
@@ -6618,23 +6621,17 @@
         <v>19</v>
       </c>
       <c r="E142" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="F142">
         <v>40</v>
       </c>
       <c r="G142" t="s">
-        <v>50</v>
+        <v>440</v>
       </c>
       <c r="H142">
         <v>0</v>
       </c>
-      <c r="I142" t="s">
-        <v>444</v>
-      </c>
-      <c r="J142">
-        <v>0</v>
-      </c>
       <c r="M142" t="s">
         <v>21</v>
       </c>
@@ -6642,15 +6639,15 @@
         <v>22</v>
       </c>
       <c r="O142" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B143" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C143">
         <v>2</v>
@@ -6659,19 +6656,19 @@
         <v>19</v>
       </c>
       <c r="E143" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="F143">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>291</v>
+        <v>50</v>
       </c>
       <c r="H143">
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -6683,15 +6680,15 @@
         <v>22</v>
       </c>
       <c r="O143" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B144" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C144">
         <v>2</v>
@@ -6700,27 +6697,21 @@
         <v>19</v>
       </c>
       <c r="E144" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="F144">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
-        <v>451</v>
+        <v>291</v>
       </c>
       <c r="H144">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>359</v>
+        <v>415</v>
       </c>
       <c r="J144">
-        <v>3</v>
-      </c>
-      <c r="K144" t="s">
-        <v>452</v>
-      </c>
-      <c r="L144">
         <v>0</v>
       </c>
       <c r="M144" t="s">
@@ -6730,34 +6721,46 @@
         <v>22</v>
       </c>
       <c r="O144" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B145" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D145" t="s">
         <v>19</v>
       </c>
       <c r="E145" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="F145">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G145" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="H145">
         <v>3</v>
       </c>
+      <c r="I145" t="s">
+        <v>359</v>
+      </c>
+      <c r="J145">
+        <v>3</v>
+      </c>
+      <c r="K145" t="s">
+        <v>452</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
       <c r="M145" t="s">
         <v>21</v>
       </c>
@@ -6765,33 +6768,33 @@
         <v>22</v>
       </c>
       <c r="O145" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B146" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D146" t="s">
         <v>19</v>
       </c>
       <c r="E146" t="s">
-        <v>460</v>
+        <v>119</v>
       </c>
       <c r="F146">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G146" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M146" t="s">
         <v>21</v>
@@ -6800,40 +6803,34 @@
         <v>22</v>
       </c>
       <c r="O146" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B147" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C147">
         <v>2</v>
       </c>
       <c r="D147" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="E147" t="s">
-        <v>169</v>
+        <v>460</v>
       </c>
       <c r="F147">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G147" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="H147">
         <v>0</v>
       </c>
-      <c r="I147" t="s">
-        <v>466</v>
-      </c>
-      <c r="J147">
-        <v>0</v>
-      </c>
       <c r="M147" t="s">
         <v>21</v>
       </c>
@@ -6841,34 +6838,40 @@
         <v>22</v>
       </c>
       <c r="O147" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B148" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148" t="s">
+        <v>161</v>
+      </c>
+      <c r="E148" t="s">
+        <v>169</v>
+      </c>
+      <c r="F148">
         <v>4</v>
       </c>
-      <c r="D148" t="s">
-        <v>19</v>
-      </c>
-      <c r="E148" t="s">
-        <v>20</v>
-      </c>
-      <c r="F148">
-        <v>80</v>
-      </c>
       <c r="G148" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="H148">
         <v>0</v>
       </c>
+      <c r="I148" t="s">
+        <v>466</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
       <c r="M148" t="s">
         <v>21</v>
       </c>
@@ -6876,40 +6879,34 @@
         <v>22</v>
       </c>
       <c r="O148" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B149" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C149">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D149" t="s">
         <v>19</v>
       </c>
       <c r="E149" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="F149">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G149" t="s">
-        <v>248</v>
+        <v>470</v>
       </c>
       <c r="H149">
         <v>0</v>
       </c>
-      <c r="I149" t="s">
-        <v>474</v>
-      </c>
-      <c r="J149">
-        <v>0</v>
-      </c>
       <c r="M149" t="s">
         <v>21</v>
       </c>
@@ -6917,46 +6914,40 @@
         <v>22</v>
       </c>
       <c r="O149" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B150" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C150">
         <v>3</v>
       </c>
       <c r="D150" t="s">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="E150" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="F150">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G150" t="s">
-        <v>146</v>
+        <v>248</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="J150">
         <v>0</v>
       </c>
-      <c r="K150" t="s">
-        <v>248</v>
-      </c>
-      <c r="L150">
-        <v>0</v>
-      </c>
       <c r="M150" t="s">
         <v>21</v>
       </c>
@@ -6964,40 +6955,46 @@
         <v>22</v>
       </c>
       <c r="O150" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B151" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C151">
+        <v>3</v>
+      </c>
+      <c r="D151" t="s">
+        <v>144</v>
+      </c>
+      <c r="E151" t="s">
+        <v>145</v>
+      </c>
+      <c r="F151">
+        <v>30</v>
+      </c>
+      <c r="G151" t="s">
+        <v>146</v>
+      </c>
+      <c r="H151">
         <v>2</v>
       </c>
-      <c r="D151" t="s">
-        <v>19</v>
-      </c>
-      <c r="E151" t="s">
-        <v>35</v>
-      </c>
-      <c r="F151">
-        <v>40</v>
-      </c>
-      <c r="G151" t="s">
-        <v>50</v>
-      </c>
-      <c r="H151">
-        <v>0</v>
-      </c>
       <c r="I151" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J151">
         <v>0</v>
       </c>
+      <c r="K151" t="s">
+        <v>248</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
       <c r="M151" t="s">
         <v>21</v>
       </c>
@@ -7005,36 +7002,36 @@
         <v>22</v>
       </c>
       <c r="O151" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B152" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C152">
         <v>2</v>
       </c>
       <c r="D152" t="s">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="E152" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="F152">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="G152" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="H152">
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -7046,122 +7043,116 @@
         <v>22</v>
       </c>
       <c r="O152" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>488</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
+      </c>
+      <c r="B153" t="s">
+        <v>485</v>
       </c>
       <c r="C153">
         <v>2</v>
       </c>
       <c r="D153" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="E153" t="s">
+        <v>145</v>
+      </c>
+      <c r="F153">
+        <v>4</v>
+      </c>
+      <c r="G153" t="s">
+        <v>146</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153" t="s">
+        <v>486</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="M153" t="s">
+        <v>21</v>
+      </c>
+      <c r="N153" t="s">
+        <v>22</v>
+      </c>
+      <c r="O153" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>488</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+      <c r="D154" t="s">
+        <v>19</v>
+      </c>
+      <c r="E154" t="s">
         <v>119</v>
       </c>
-      <c r="F153">
+      <c r="F154">
         <v>40</v>
       </c>
-      <c r="G153" t="s">
+      <c r="G154" t="s">
         <v>427</v>
       </c>
-      <c r="H153">
+      <c r="H154">
         <v>100</v>
       </c>
-      <c r="I153" t="s">
+      <c r="I154" t="s">
         <v>490</v>
       </c>
-      <c r="J153">
-        <v>0</v>
-      </c>
-      <c r="M153" t="s">
-        <v>21</v>
-      </c>
-      <c r="N153" t="s">
-        <v>22</v>
-      </c>
-      <c r="O153" t="s">
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="M154" t="s">
+        <v>21</v>
+      </c>
+      <c r="N154" t="s">
+        <v>22</v>
+      </c>
+      <c r="O154" t="s">
         <v>491</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>492</v>
-      </c>
-      <c r="B154" t="s">
-        <v>493</v>
-      </c>
-      <c r="C154">
-        <v>4</v>
-      </c>
-      <c r="D154" t="s">
-        <v>19</v>
-      </c>
-      <c r="E154" t="s">
-        <v>494</v>
-      </c>
-      <c r="F154">
-        <v>75</v>
-      </c>
-      <c r="G154" t="s">
-        <v>495</v>
-      </c>
-      <c r="H154">
-        <v>0</v>
-      </c>
-      <c r="M154" t="s">
-        <v>21</v>
-      </c>
-      <c r="N154" t="s">
-        <v>22</v>
-      </c>
-      <c r="O154" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B155" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D155" t="s">
         <v>19</v>
       </c>
       <c r="E155" t="s">
-        <v>119</v>
+        <v>494</v>
       </c>
       <c r="F155">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G155" t="s">
-        <v>50</v>
+        <v>495</v>
       </c>
       <c r="H155">
         <v>0</v>
       </c>
-      <c r="I155" t="s">
-        <v>248</v>
-      </c>
-      <c r="J155">
-        <v>0</v>
-      </c>
-      <c r="K155" t="s">
-        <v>499</v>
-      </c>
-      <c r="L155">
-        <v>0</v>
-      </c>
       <c r="M155" t="s">
         <v>21</v>
       </c>
@@ -7169,45 +7160,42 @@
         <v>22</v>
       </c>
       <c r="O155" t="s">
-        <v>500</v>
-      </c>
-      <c r="P155" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B156" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D156" t="s">
         <v>19</v>
       </c>
       <c r="E156" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="F156">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G156" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="H156">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>50</v>
+        <v>248</v>
       </c>
       <c r="J156">
         <v>0</v>
       </c>
       <c r="K156" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="L156">
         <v>0</v>
@@ -7219,15 +7207,18 @@
         <v>22</v>
       </c>
       <c r="O156" t="s">
-        <v>505</v>
+        <v>500</v>
+      </c>
+      <c r="P156" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B157" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C157">
         <v>3</v>
@@ -7236,25 +7227,25 @@
         <v>19</v>
       </c>
       <c r="E157" t="s">
+        <v>77</v>
+      </c>
+      <c r="F157">
+        <v>35</v>
+      </c>
+      <c r="G157" t="s">
         <v>119</v>
       </c>
-      <c r="F157">
-        <v>60</v>
-      </c>
-      <c r="G157" t="s">
-        <v>508</v>
-      </c>
       <c r="H157">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I157" t="s">
-        <v>248</v>
+        <v>50</v>
       </c>
       <c r="J157">
         <v>0</v>
       </c>
       <c r="K157" t="s">
-        <v>291</v>
+        <v>504</v>
       </c>
       <c r="L157">
         <v>0</v>
@@ -7266,56 +7257,62 @@
         <v>22</v>
       </c>
       <c r="O157" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>506</v>
+      </c>
+      <c r="B158" t="s">
+        <v>507</v>
+      </c>
+      <c r="C158">
+        <v>3</v>
+      </c>
+      <c r="D158" t="s">
+        <v>19</v>
+      </c>
+      <c r="E158" t="s">
+        <v>119</v>
+      </c>
+      <c r="F158">
+        <v>60</v>
+      </c>
+      <c r="G158" t="s">
+        <v>508</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158" t="s">
+        <v>248</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158" t="s">
+        <v>291</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158" t="s">
+        <v>21</v>
+      </c>
+      <c r="N158" t="s">
+        <v>22</v>
+      </c>
+      <c r="O158" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>510</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B159" t="s">
         <v>511</v>
-      </c>
-      <c r="C158">
-        <v>2</v>
-      </c>
-      <c r="D158" t="s">
-        <v>19</v>
-      </c>
-      <c r="E158" t="s">
-        <v>35</v>
-      </c>
-      <c r="F158">
-        <v>40</v>
-      </c>
-      <c r="G158" t="s">
-        <v>512</v>
-      </c>
-      <c r="H158">
-        <v>0</v>
-      </c>
-      <c r="I158" t="s">
-        <v>513</v>
-      </c>
-      <c r="J158">
-        <v>5</v>
-      </c>
-      <c r="M158" t="s">
-        <v>21</v>
-      </c>
-      <c r="N158" t="s">
-        <v>22</v>
-      </c>
-      <c r="O158" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>515</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>516</v>
       </c>
       <c r="C159">
         <v>2</v>
@@ -7324,22 +7321,22 @@
         <v>19</v>
       </c>
       <c r="E159" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="F159">
         <v>40</v>
       </c>
       <c r="G159" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="H159">
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>465</v>
+        <v>513</v>
       </c>
       <c r="J159">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M159" t="s">
         <v>21</v>
@@ -7348,30 +7345,30 @@
         <v>22</v>
       </c>
       <c r="O159" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="160" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D160" t="s">
         <v>19</v>
       </c>
       <c r="E160" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="F160">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G160" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -7389,15 +7386,15 @@
         <v>22</v>
       </c>
       <c r="O160" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>523</v>
-      </c>
-      <c r="B161" t="s">
-        <v>524</v>
+        <v>519</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>520</v>
       </c>
       <c r="C161">
         <v>3</v>
@@ -7406,24 +7403,65 @@
         <v>19</v>
       </c>
       <c r="E161" t="s">
+        <v>35</v>
+      </c>
+      <c r="F161">
+        <v>50</v>
+      </c>
+      <c r="G161" t="s">
+        <v>521</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161" t="s">
+        <v>465</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="M161" t="s">
+        <v>21</v>
+      </c>
+      <c r="N161" t="s">
+        <v>22</v>
+      </c>
+      <c r="O161" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>523</v>
+      </c>
+      <c r="B162" t="s">
+        <v>524</v>
+      </c>
+      <c r="C162">
+        <v>3</v>
+      </c>
+      <c r="D162" t="s">
+        <v>19</v>
+      </c>
+      <c r="E162" t="s">
         <v>494</v>
       </c>
-      <c r="F161">
+      <c r="F162">
         <v>80</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G162" t="s">
         <v>525</v>
       </c>
-      <c r="H161">
-        <v>0</v>
-      </c>
-      <c r="M161" t="s">
-        <v>21</v>
-      </c>
-      <c r="N161" t="s">
-        <v>22</v>
-      </c>
-      <c r="O161" t="s">
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="M162" t="s">
+        <v>21</v>
+      </c>
+      <c r="N162" t="s">
+        <v>22</v>
+      </c>
+      <c r="O162" t="s">
         <v>526</v>
       </c>
     </row>

--- a/FEHSimulation/Spreadsheets/FEHSpecials.xlsx
+++ b/FEHSimulation/Spreadsheets/FEHSpecials.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="539">
   <si>
     <t>Name</t>
   </si>
@@ -1641,6 +1641,21 @@
   </si>
   <si>
     <t>When Special triggers, boosts damage by 60% of unit's Res and neutralizes foe's "reduces damage by X%" effects from foe's non-Special skills. If unit's or foe's Special is ready, or unit's or foe's Special triggered before or during this combat, reduces damage from foe's next attack by 40% (once per combat; excluding area-of-effect Specials). If a Rally or movement Assist skill is used by unit, restores 20 HP to allies within 2 spaces of both unit and target ally after movement (including target ally; excluding unit), and neutralizes any [Penalty] on those allies (does not stack even if effect ranges of unit and target overlap), and grants another action to unit (additional action granted once per turn only; if another effect that grants additional action to unit has been triggered at the same time, this effect is also considered to have been triggered).</t>
+  </si>
+  <si>
+    <t>The True Njörun</t>
+  </si>
+  <si>
+    <t>Boosts damage by 50% of unit's Def when Special triggers.
+Enables [Canto (Ally 2, 2)].
+If unit initiates combat, after combat, if unit's Special triggered and unit survives, grants another action to unit, and also, if unit is not within 2 spaces of an ally, inflicts "restricts movement to 1 space" on unit and Pair Up cohort through their next action (once per turn; "within 2 spaces" is calculated based on the position of unit after triggering post-combat skill effects that change positioning).
+If unit's or foe's Special is ready, or unit's or foe's Special triggered before or during this combat, reduces damage from foe's next attack by 40% (once per combat; excluding area-of-effect Specials).</t>
+  </si>
+  <si>
+    <t>X!Leif</t>
+  </si>
+  <si>
+    <t>trueNjorun</t>
   </si>
 </sst>
 </file>
@@ -1959,10 +1974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q163"/>
+  <dimension ref="A1:Q164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="J164" sqref="J164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8546,6 +8561,47 @@
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
     </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C164" s="1">
+        <v>3</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F164" s="1">
+        <v>50</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="H164" s="1">
+        <v>0</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J164" s="1">
+        <v>0</v>
+      </c>
+      <c r="M164" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N164" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O164" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
